--- a/data/trans_orig/P36S4-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36S4-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{471AF9E6-3527-4E19-8BC3-C2718D15C46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E60F2C49-8F39-481C-BBF9-5633824073AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5A1D1367-4AA9-48A8-B43B-C888C86C3DD9}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7D532B86-8A45-454C-BC28-0A8F37334FBC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="268">
   <si>
     <t>Población según lo que suelen desayunar habitualmente / respuesta 4 en 2007 (Tasa respuesta: 0,66%)</t>
   </si>
@@ -91,7 +91,7 @@
     <t>7,81%</t>
   </si>
   <si>
-    <t>38,19%</t>
+    <t>38,43%</t>
   </si>
   <si>
     <t>Alimentos como huevos, queso, jamón, etc</t>
@@ -109,7 +109,7 @@
     <t>92,19%</t>
   </si>
   <si>
-    <t>61,81%</t>
+    <t>61,57%</t>
   </si>
   <si>
     <t>Café, leche, té, chocolate, cacao, yogur, etc</t>
@@ -175,13 +175,13 @@
     <t>14,81%</t>
   </si>
   <si>
-    <t>60,12%</t>
+    <t>68,36%</t>
   </si>
   <si>
     <t>11,51%</t>
   </si>
   <si>
-    <t>49,91%</t>
+    <t>55,97%</t>
   </si>
   <si>
     <t>50,0%</t>
@@ -190,19 +190,19 @@
     <t>85,19%</t>
   </si>
   <si>
-    <t>39,88%</t>
+    <t>31,64%</t>
   </si>
   <si>
     <t>77,34%</t>
   </si>
   <si>
-    <t>39,25%</t>
+    <t>39,05%</t>
   </si>
   <si>
     <t>11,15%</t>
   </si>
   <si>
-    <t>49,89%</t>
+    <t>48,36%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -289,61 +289,61 @@
     <t>14,35%</t>
   </si>
   <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
   </si>
   <si>
     <t>15,38%</t>
   </si>
   <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
   </si>
   <si>
     <t>14,91%</t>
   </si>
   <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
   </si>
   <si>
     <t>80,92%</t>
   </si>
   <si>
-    <t>54,35%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
   </si>
   <si>
     <t>84,62%</t>
   </si>
   <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
+    <t>65,4%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
   </si>
   <si>
     <t>82,94%</t>
   </si>
   <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
   </si>
   <si>
     <t>4,73%</t>
   </si>
   <si>
-    <t>31,04%</t>
+    <t>24,41%</t>
   </si>
   <si>
     <t>7,32%</t>
@@ -352,7 +352,7 @@
     <t>2,15%</t>
   </si>
   <si>
-    <t>12,57%</t>
+    <t>9,44%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -373,7 +373,7 @@
     <t>9,29%</t>
   </si>
   <si>
-    <t>38,02%</t>
+    <t>38,1%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -388,7 +388,7 @@
     <t>90,71%</t>
   </si>
   <si>
-    <t>61,98%</t>
+    <t>61,9%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -400,13 +400,13 @@
     <t>19,23%</t>
   </si>
   <si>
-    <t>79,61%</t>
+    <t>79,25%</t>
   </si>
   <si>
     <t>21,06%</t>
   </si>
   <si>
-    <t>54,81%</t>
+    <t>54,95%</t>
   </si>
   <si>
     <t>76,66%</t>
@@ -415,13 +415,10 @@
     <t>80,77%</t>
   </si>
   <si>
-    <t>20,39%</t>
-  </si>
-  <si>
     <t>78,94%</t>
   </si>
   <si>
-    <t>45,19%</t>
+    <t>45,05%</t>
   </si>
   <si>
     <t>45,27%</t>
@@ -439,49 +436,49 @@
     <t>6,35%</t>
   </si>
   <si>
-    <t>31,5%</t>
+    <t>27,19%</t>
   </si>
   <si>
     <t>14,5%</t>
   </si>
   <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
   </si>
   <si>
     <t>11,08%</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
   </si>
   <si>
     <t>93,65%</t>
   </si>
   <si>
-    <t>68,5%</t>
+    <t>72,81%</t>
   </si>
   <si>
     <t>85,5%</t>
   </si>
   <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
   </si>
   <si>
     <t>88,92%</t>
   </si>
   <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
+    <t>74,46%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -499,10 +496,10 @@
     <t>25,41%</t>
   </si>
   <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>58,18%</t>
   </si>
   <si>
     <t>31,24%</t>
@@ -514,19 +511,19 @@
     <t>27,22%</t>
   </si>
   <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
   </si>
   <si>
     <t>74,59%</t>
   </si>
   <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
   </si>
   <si>
     <t>68,76%</t>
@@ -538,10 +535,10 @@
     <t>72,78%</t>
   </si>
   <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -550,49 +547,49 @@
     <t>44,58%</t>
   </si>
   <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
   </si>
   <si>
     <t>12,79%</t>
   </si>
   <si>
-    <t>55,05%</t>
+    <t>57,69%</t>
   </si>
   <si>
     <t>35,95%</t>
   </si>
   <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
   </si>
   <si>
     <t>55,42%</t>
   </si>
   <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
+    <t>33,14%</t>
+  </si>
+  <si>
+    <t>79,39%</t>
   </si>
   <si>
     <t>87,21%</t>
   </si>
   <si>
-    <t>44,95%</t>
+    <t>42,31%</t>
   </si>
   <si>
     <t>64,05%</t>
   </si>
   <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>81,53%</t>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
   </si>
   <si>
     <t>9,49%</t>
@@ -604,55 +601,55 @@
     <t>48,43%</t>
   </si>
   <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
   </si>
   <si>
     <t>27,0%</t>
   </si>
   <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
   </si>
   <si>
     <t>35,87%</t>
   </si>
   <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
   </si>
   <si>
     <t>51,57%</t>
   </si>
   <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
   </si>
   <si>
     <t>73,0%</t>
   </si>
   <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
   </si>
   <si>
     <t>64,13%</t>
   </si>
   <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>81,28%</t>
   </si>
   <si>
     <t>7,93%</t>
@@ -661,55 +658,55 @@
     <t>54,66%</t>
   </si>
   <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
   </si>
   <si>
     <t>63,22%</t>
   </si>
   <si>
-    <t>28,09%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
   </si>
   <si>
     <t>58,05%</t>
   </si>
   <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
   </si>
   <si>
     <t>45,34%</t>
   </si>
   <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
   </si>
   <si>
     <t>36,78%</t>
   </si>
   <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
   </si>
   <si>
     <t>41,95%</t>
   </si>
   <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>61,2%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -721,19 +718,19 @@
     <t>53,52%</t>
   </si>
   <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
   </si>
   <si>
     <t>46,48%</t>
   </si>
   <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
   </si>
   <si>
     <t>47,79%</t>
@@ -748,16 +745,16 @@
     <t>31,44%</t>
   </si>
   <si>
-    <t>67,64%</t>
+    <t>79,57%</t>
   </si>
   <si>
     <t>41,63%</t>
   </si>
   <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
   </si>
   <si>
     <t>52,21%</t>
@@ -772,70 +769,70 @@
     <t>68,56%</t>
   </si>
   <si>
-    <t>32,36%</t>
+    <t>20,43%</t>
   </si>
   <si>
     <t>58,37%</t>
   </si>
   <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
+    <t>35,22%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
   </si>
   <si>
     <t>45,82%</t>
   </si>
   <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
   </si>
   <si>
     <t>34,88%</t>
   </si>
   <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
   </si>
   <si>
     <t>41,97%</t>
   </si>
   <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>50,55%</t>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
   </si>
   <si>
     <t>54,18%</t>
   </si>
   <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>66,11%</t>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>64,7%</t>
   </si>
   <si>
     <t>65,12%</t>
   </si>
   <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
   </si>
   <si>
     <t>58,03%</t>
   </si>
   <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
   </si>
   <si>
     <t>2,46%</t>
@@ -1256,7 +1253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BADD2A-41CC-4641-8456-DB304163810C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3E6714-7DE7-4D71-9A20-7410AB7BD4C0}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2832,7 +2829,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5B2D24A-B1D5-41F4-A2D5-74B45F93A322}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0DB42C-CA41-4DAD-8A59-AA1D60792251}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3429,7 +3426,7 @@
         <v>124</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>13</v>
@@ -3441,10 +3438,10 @@
         <v>6686</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>13</v>
@@ -3985,7 +3982,7 @@
         <v>891</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>12</v>
@@ -4000,7 +3997,7 @@
         <v>890</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>12</v>
@@ -4036,7 +4033,7 @@
         <v>1076</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K25" s="7" t="s">
         <v>12</v>
@@ -4051,7 +4048,7 @@
         <v>2079</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>12</v>
@@ -4176,13 +4173,13 @@
         <v>879</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
@@ -4191,13 +4188,13 @@
         <v>2781</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -4206,13 +4203,13 @@
         <v>3660</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4227,10 +4224,10 @@
         <v>12962</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>13</v>
@@ -4242,13 +4239,13 @@
         <v>16398</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M29" s="7">
         <v>28</v>
@@ -4257,13 +4254,13 @@
         <v>29360</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4284,37 +4281,37 @@
         <v>14</v>
       </c>
       <c r="G30" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7">
-        <v>0</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>0</v>
+      </c>
+      <c r="N30" s="7">
+        <v>0</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="M30" s="7">
-        <v>0</v>
-      </c>
-      <c r="N30" s="7">
-        <v>0</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4392,7 +4389,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA7C75DF-4013-4B75-9534-93FA260769EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0755CA-9331-4928-B0DF-36CB87B18A52}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4409,7 +4406,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4516,13 +4513,13 @@
         <v>3276</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -4531,13 +4528,13 @@
         <v>1824</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -4546,13 +4543,13 @@
         <v>5099</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4567,13 +4564,13 @@
         <v>9619</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -4582,10 +4579,10 @@
         <v>4013</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>13</v>
@@ -4597,13 +4594,13 @@
         <v>13632</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4624,7 +4621,7 @@
         <v>14</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4654,7 +4651,7 @@
         <v>14</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,13 +4719,13 @@
         <v>9124</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -4737,13 +4734,13 @@
         <v>976</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -4752,13 +4749,13 @@
         <v>10100</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4773,13 +4770,13 @@
         <v>11343</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H9" s="7">
         <v>7</v>
@@ -4788,10 +4785,10 @@
         <v>6655</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>13</v>
@@ -4803,13 +4800,13 @@
         <v>17999</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4830,7 +4827,7 @@
         <v>14</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4860,7 +4857,7 @@
         <v>14</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4928,13 +4925,13 @@
         <v>4714</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -4943,13 +4940,13 @@
         <v>3720</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M12" s="7">
         <v>8</v>
@@ -4958,13 +4955,13 @@
         <v>8433</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4979,13 +4976,13 @@
         <v>5019</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -4994,13 +4991,13 @@
         <v>10057</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>15</v>
@@ -5009,13 +5006,13 @@
         <v>15077</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5051,7 +5048,7 @@
         <v>14</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -5066,7 +5063,7 @@
         <v>14</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5134,13 +5131,13 @@
         <v>9443</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -5149,13 +5146,13 @@
         <v>7156</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -5164,13 +5161,13 @@
         <v>16599</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5185,13 +5182,13 @@
         <v>7833</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -5200,13 +5197,13 @@
         <v>4163</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -5215,13 +5212,13 @@
         <v>11996</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5242,7 +5239,7 @@
         <v>14</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -5272,7 +5269,7 @@
         <v>14</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5340,13 +5337,13 @@
         <v>6230</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5368,13 +5365,13 @@
         <v>6230</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5389,13 +5386,13 @@
         <v>5410</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -5417,13 +5414,13 @@
         <v>5410</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5538,13 +5535,13 @@
         <v>5109</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -5553,13 +5550,13 @@
         <v>2033</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M24" s="7">
         <v>8</v>
@@ -5568,13 +5565,13 @@
         <v>7142</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5589,13 +5586,13 @@
         <v>5581</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -5604,10 +5601,10 @@
         <v>4431</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>13</v>
@@ -5619,13 +5616,13 @@
         <v>10013</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5646,7 +5643,7 @@
         <v>14</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5676,7 +5673,7 @@
         <v>14</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5744,13 +5741,13 @@
         <v>37896</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>250</v>
       </c>
       <c r="H28" s="7">
         <v>16</v>
@@ -5759,13 +5756,13 @@
         <v>15708</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="M28" s="7">
         <v>50</v>
@@ -5774,13 +5771,13 @@
         <v>53605</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5795,13 +5792,13 @@
         <v>44805</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>259</v>
       </c>
       <c r="H29" s="7">
         <v>29</v>
@@ -5810,13 +5807,13 @@
         <v>29321</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M29" s="7">
         <v>72</v>
@@ -5825,13 +5822,13 @@
         <v>74125</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5852,37 +5849,37 @@
         <v>14</v>
       </c>
       <c r="G30" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7">
-        <v>0</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L30" s="7" t="s">
+      <c r="M30" s="7">
+        <v>0</v>
+      </c>
+      <c r="N30" s="7">
+        <v>0</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="M30" s="7">
-        <v>0</v>
-      </c>
-      <c r="N30" s="7">
-        <v>0</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P36S4-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36S4-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E60F2C49-8F39-481C-BBF9-5633824073AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6EE735B3-5581-4B4A-A5A5-6A842A7D270B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7D532B86-8A45-454C-BC28-0A8F37334FBC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{54F3F7AD-7431-4C80-A13C-4229E4C15B37}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="266">
   <si>
     <t>Población según lo que suelen desayunar habitualmente / respuesta 4 en 2007 (Tasa respuesta: 0,66%)</t>
   </si>
@@ -91,7 +91,7 @@
     <t>7,81%</t>
   </si>
   <si>
-    <t>38,43%</t>
+    <t>38,49%</t>
   </si>
   <si>
     <t>Alimentos como huevos, queso, jamón, etc</t>
@@ -109,7 +109,7 @@
     <t>92,19%</t>
   </si>
   <si>
-    <t>61,57%</t>
+    <t>61,51%</t>
   </si>
   <si>
     <t>Café, leche, té, chocolate, cacao, yogur, etc</t>
@@ -127,7 +127,7 @@
     <t>12,33%</t>
   </si>
   <si>
-    <t>61,92%</t>
+    <t>62,6%</t>
   </si>
   <si>
     <t>25,38%</t>
@@ -139,13 +139,13 @@
     <t>17,02%</t>
   </si>
   <si>
-    <t>48,46%</t>
+    <t>56,34%</t>
   </si>
   <si>
     <t>87,67%</t>
   </si>
   <si>
-    <t>38,08%</t>
+    <t>37,4%</t>
   </si>
   <si>
     <t>74,62%</t>
@@ -157,7 +157,7 @@
     <t>82,98%</t>
   </si>
   <si>
-    <t>51,54%</t>
+    <t>43,66%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -175,13 +175,13 @@
     <t>14,81%</t>
   </si>
   <si>
-    <t>68,36%</t>
+    <t>64,38%</t>
   </si>
   <si>
     <t>11,51%</t>
   </si>
   <si>
-    <t>55,97%</t>
+    <t>49,48%</t>
   </si>
   <si>
     <t>50,0%</t>
@@ -190,19 +190,19 @@
     <t>85,19%</t>
   </si>
   <si>
-    <t>31,64%</t>
+    <t>35,62%</t>
   </si>
   <si>
     <t>77,34%</t>
   </si>
   <si>
-    <t>39,05%</t>
+    <t>38,67%</t>
   </si>
   <si>
     <t>11,15%</t>
   </si>
   <si>
-    <t>48,36%</t>
+    <t>51,36%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -235,7 +235,7 @@
     <t>20,88%</t>
   </si>
   <si>
-    <t>81,38%</t>
+    <t>85,01%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -247,7 +247,7 @@
     <t>79,12%</t>
   </si>
   <si>
-    <t>18,62%</t>
+    <t>14,99%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -265,7 +265,7 @@
     <t>17,07%</t>
   </si>
   <si>
-    <t>60,79%</t>
+    <t>72,64%</t>
   </si>
   <si>
     <t>68,43%</t>
@@ -280,7 +280,7 @@
     <t>82,93%</t>
   </si>
   <si>
-    <t>39,21%</t>
+    <t>27,36%</t>
   </si>
   <si>
     <t>20,75%</t>
@@ -289,61 +289,61 @@
     <t>14,35%</t>
   </si>
   <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
   </si>
   <si>
     <t>15,38%</t>
   </si>
   <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
   </si>
   <si>
     <t>14,91%</t>
   </si>
   <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
   </si>
   <si>
     <t>80,92%</t>
   </si>
   <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
+    <t>57,2%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
   </si>
   <si>
     <t>84,62%</t>
   </si>
   <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
+    <t>62,76%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
   </si>
   <si>
     <t>82,94%</t>
   </si>
   <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
   </si>
   <si>
     <t>4,73%</t>
   </si>
   <si>
-    <t>24,41%</t>
+    <t>21,72%</t>
   </si>
   <si>
     <t>7,32%</t>
@@ -352,7 +352,7 @@
     <t>2,15%</t>
   </si>
   <si>
-    <t>9,44%</t>
+    <t>10,95%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -367,13 +367,13 @@
     <t>16,49%</t>
   </si>
   <si>
-    <t>68,4%</t>
+    <t>54,21%</t>
   </si>
   <si>
     <t>9,29%</t>
   </si>
   <si>
-    <t>38,1%</t>
+    <t>37,67%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -382,13 +382,13 @@
     <t>83,51%</t>
   </si>
   <si>
-    <t>31,6%</t>
+    <t>45,79%</t>
   </si>
   <si>
     <t>90,71%</t>
   </si>
   <si>
-    <t>61,9%</t>
+    <t>62,33%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -406,7 +406,7 @@
     <t>21,06%</t>
   </si>
   <si>
-    <t>54,95%</t>
+    <t>54,66%</t>
   </si>
   <si>
     <t>76,66%</t>
@@ -418,7 +418,7 @@
     <t>78,94%</t>
   </si>
   <si>
-    <t>45,05%</t>
+    <t>45,34%</t>
   </si>
   <si>
     <t>45,27%</t>
@@ -436,49 +436,49 @@
     <t>6,35%</t>
   </si>
   <si>
-    <t>27,19%</t>
+    <t>27,13%</t>
   </si>
   <si>
     <t>14,5%</t>
   </si>
   <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
   </si>
   <si>
     <t>11,08%</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
   </si>
   <si>
     <t>93,65%</t>
   </si>
   <si>
-    <t>72,81%</t>
+    <t>72,87%</t>
   </si>
   <si>
     <t>85,5%</t>
   </si>
   <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
   </si>
   <si>
     <t>88,92%</t>
   </si>
   <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
   </si>
   <si>
     <t>12,61%</t>
@@ -490,55 +490,55 @@
     <t>5,78%</t>
   </si>
   <si>
-    <t>Población según lo que suelen desayunar habitualmente / respuesta 4 en 2015 (Tasa respuesta: 1,86%)</t>
+    <t>Población según lo que suelen desayunar habitualmente / respuesta 4 en 2016 (Tasa respuesta: 1,86%)</t>
   </si>
   <si>
     <t>25,41%</t>
   </si>
   <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>58,18%</t>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
   </si>
   <si>
     <t>31,24%</t>
   </si>
   <si>
-    <t>82,42%</t>
+    <t>81,63%</t>
   </si>
   <si>
     <t>27,22%</t>
   </si>
   <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
   </si>
   <si>
     <t>74,59%</t>
   </si>
   <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
   </si>
   <si>
     <t>68,76%</t>
   </si>
   <si>
-    <t>17,58%</t>
+    <t>18,37%</t>
   </si>
   <si>
     <t>72,78%</t>
   </si>
   <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
   </si>
   <si>
     <t>14,51%</t>
@@ -547,49 +547,49 @@
     <t>44,58%</t>
   </si>
   <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>66,86%</t>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
   </si>
   <si>
     <t>12,79%</t>
   </si>
   <si>
-    <t>57,69%</t>
+    <t>50,84%</t>
   </si>
   <si>
     <t>35,95%</t>
   </si>
   <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
   </si>
   <si>
     <t>55,42%</t>
   </si>
   <si>
-    <t>33,14%</t>
-  </si>
-  <si>
-    <t>79,39%</t>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
   </si>
   <si>
     <t>87,21%</t>
   </si>
   <si>
-    <t>42,31%</t>
+    <t>49,16%</t>
   </si>
   <si>
     <t>64,05%</t>
   </si>
   <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>81,65%</t>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
   </si>
   <si>
     <t>9,49%</t>
@@ -601,112 +601,106 @@
     <t>48,43%</t>
   </si>
   <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
   </si>
   <si>
     <t>27,0%</t>
   </si>
   <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
   </si>
   <si>
     <t>35,87%</t>
   </si>
   <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
   </si>
   <si>
     <t>51,57%</t>
   </si>
   <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
   </si>
   <si>
     <t>73,0%</t>
   </si>
   <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>93,32%</t>
   </si>
   <si>
     <t>64,13%</t>
   </si>
   <si>
-    <t>40,26%</t>
-  </si>
-  <si>
-    <t>81,28%</t>
+    <t>42,1%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
   </si>
   <si>
     <t>7,93%</t>
   </si>
   <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>75,96%</t>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
   </si>
   <si>
     <t>63,22%</t>
   </si>
   <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
+    <t>34,74%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
   </si>
   <si>
     <t>58,05%</t>
   </si>
   <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
   </si>
   <si>
     <t>36,78%</t>
   </si>
   <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
   </si>
   <si>
     <t>41,95%</t>
   </si>
   <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>61,2%</t>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
   </si>
   <si>
     <t>11,83%</t>
@@ -718,121 +712,121 @@
     <t>53,52%</t>
   </si>
   <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
   </si>
   <si>
     <t>46,48%</t>
   </si>
   <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
   </si>
   <si>
     <t>47,79%</t>
   </si>
   <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
   </si>
   <si>
     <t>31,44%</t>
   </si>
   <si>
-    <t>79,57%</t>
+    <t>80,66%</t>
   </si>
   <si>
     <t>41,63%</t>
   </si>
   <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
   </si>
   <si>
     <t>52,21%</t>
   </si>
   <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>77,76%</t>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
   </si>
   <si>
     <t>68,56%</t>
   </si>
   <si>
-    <t>20,43%</t>
+    <t>19,34%</t>
   </si>
   <si>
     <t>58,37%</t>
   </si>
   <si>
-    <t>35,22%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
   </si>
   <si>
     <t>45,82%</t>
   </si>
   <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
   </si>
   <si>
     <t>34,88%</t>
   </si>
   <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
   </si>
   <si>
     <t>41,97%</t>
   </si>
   <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
   </si>
   <si>
     <t>54,18%</t>
   </si>
   <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
   </si>
   <si>
     <t>65,12%</t>
   </si>
   <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
+    <t>52,13%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
   </si>
   <si>
     <t>58,03%</t>
   </si>
   <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
   </si>
   <si>
     <t>2,46%</t>
@@ -1253,7 +1247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3E6714-7DE7-4D71-9A20-7410AB7BD4C0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B8612FE-0012-4B53-9608-25C111C77BAB}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2829,7 +2823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0DB42C-CA41-4DAD-8A59-AA1D60792251}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B3E90A-6B2F-40EE-8C00-48179FFF9B9F}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4389,7 +4383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E0755CA-9331-4928-B0DF-36CB87B18A52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFC2BF00-9490-4DDD-BC32-E61CB2363823}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5131,13 +5125,13 @@
         <v>9443</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -5146,13 +5140,13 @@
         <v>7156</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M16" s="7">
         <v>15</v>
@@ -5161,13 +5155,13 @@
         <v>16599</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5182,13 +5176,13 @@
         <v>7833</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -5197,13 +5191,13 @@
         <v>4163</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M17" s="7">
         <v>11</v>
@@ -5212,13 +5206,13 @@
         <v>11996</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5239,7 +5233,7 @@
         <v>14</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -5269,7 +5263,7 @@
         <v>14</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,13 +5331,13 @@
         <v>6230</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5365,13 +5359,13 @@
         <v>6230</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,13 +5380,13 @@
         <v>5410</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -5414,13 +5408,13 @@
         <v>5410</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,13 +5529,13 @@
         <v>5109</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -5550,13 +5544,13 @@
         <v>2033</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="M24" s="7">
         <v>8</v>
@@ -5565,13 +5559,13 @@
         <v>7142</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5586,13 +5580,13 @@
         <v>5581</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="H25" s="7">
         <v>4</v>
@@ -5601,10 +5595,10 @@
         <v>4431</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>13</v>
@@ -5616,13 +5610,13 @@
         <v>10013</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5741,13 +5735,13 @@
         <v>37896</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="H28" s="7">
         <v>16</v>
@@ -5756,13 +5750,13 @@
         <v>15708</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="M28" s="7">
         <v>50</v>
@@ -5771,13 +5765,13 @@
         <v>53605</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5792,13 +5786,13 @@
         <v>44805</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H29" s="7">
         <v>29</v>
@@ -5807,13 +5801,13 @@
         <v>29321</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M29" s="7">
         <v>72</v>
@@ -5822,13 +5816,13 @@
         <v>74125</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5849,37 +5843,37 @@
         <v>14</v>
       </c>
       <c r="G30" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="M30" s="7">
+        <v>0</v>
+      </c>
+      <c r="N30" s="7">
+        <v>0</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7">
-        <v>0</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="M30" s="7">
-        <v>0</v>
-      </c>
-      <c r="N30" s="7">
-        <v>0</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
